--- a/src/test/resources/FHEO-Testdata3.xlsx
+++ b/src/test/resources/FHEO-Testdata3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E5F753-BB8A-4260-A2BA-DFA67D85E2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF17C55-BBA8-4647-A98E-BA308BFA705B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/FHEO-Testdata3.xlsx
+++ b/src/test/resources/FHEO-Testdata3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9DD51-1782-4565-806D-95ECFE752CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E135F88-A535-4C73-80CE-C3DB53104995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>disaltOtherRelationshipDescription</t>
   </si>
   <si>
-    <t>03-04-2021</t>
-  </si>
-  <si>
     <t>disaltContactEmail</t>
   </si>
   <si>
@@ -1174,6 +1171,9 @@
   </si>
   <si>
     <t>Updik271</t>
+  </si>
+  <si>
+    <t>05-12-2021</t>
   </si>
 </sst>
 </file>
@@ -2122,10 +2122,10 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD92"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2:T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2280,7 +2280,7 @@
         <v>41</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2311,7 +2311,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -2323,16 +2323,16 @@
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="X2" s="13">
         <v>2224568749</v>
@@ -2340,14 +2340,14 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="19"/>
       <c r="AC2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE2" s="13">
         <v>80011</v>
@@ -2387,7 +2387,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -2399,16 +2399,16 @@
       </c>
       <c r="S3" s="19"/>
       <c r="T3" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="X3" s="13">
         <v>2224568749</v>
@@ -2416,14 +2416,14 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE3" s="13">
         <v>80011</v>
@@ -2463,7 +2463,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -2475,16 +2475,16 @@
       </c>
       <c r="S4" s="19"/>
       <c r="T4" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="X4" s="13">
         <v>2224568749</v>
@@ -2492,14 +2492,14 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE4" s="13">
         <v>80011</v>
@@ -2534,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -2542,7 +2542,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -2554,16 +2554,16 @@
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="X5" s="13">
         <v>2224568749</v>
@@ -2571,14 +2571,14 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE5" s="13">
         <v>80011</v>
@@ -2613,10 +2613,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>10</v>
@@ -2625,10 +2625,10 @@
         <v>8009098909</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>23</v>
@@ -2646,16 +2646,16 @@
         <v>20006</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="X6" s="13">
         <v>2224568749</v>
@@ -2664,7 +2664,7 @@
         <v>43</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>44</v>
@@ -2673,7 +2673,7 @@
         <v>45</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD6" s="13" t="s">
         <v>22</v>
@@ -2697,7 +2697,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2723,10 +2723,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>10</v>
@@ -2735,10 +2735,10 @@
         <v>8009098909</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>23</v>
@@ -2756,16 +2756,16 @@
         <v>20006</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="X7" s="13">
         <v>2224568749</v>
@@ -2774,7 +2774,7 @@
         <v>43</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>44</v>
@@ -2783,7 +2783,7 @@
         <v>45</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>22</v>
@@ -2807,7 +2807,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2833,10 +2833,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>10</v>
@@ -2845,10 +2845,10 @@
         <v>8009098909</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>23</v>
@@ -2866,16 +2866,16 @@
         <v>20006</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="X8" s="13">
         <v>2224568749</v>
@@ -2884,7 +2884,7 @@
         <v>43</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>44</v>
@@ -2893,7 +2893,7 @@
         <v>45</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>22</v>
@@ -2917,7 +2917,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2943,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>10</v>
@@ -2955,10 +2955,10 @@
         <v>8009098909</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>23</v>
@@ -2976,16 +2976,16 @@
         <v>20006</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="X9" s="13">
         <v>2224568749</v>
@@ -2994,7 +2994,7 @@
         <v>43</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>44</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD9" s="13" t="s">
         <v>22</v>
@@ -3027,7 +3027,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3053,10 +3053,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>10</v>
@@ -3065,10 +3065,10 @@
         <v>8009098909</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>23</v>
@@ -3086,16 +3086,16 @@
         <v>20006</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="X10" s="13">
         <v>2224568749</v>
@@ -3104,7 +3104,7 @@
         <v>43</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>44</v>
@@ -3113,7 +3113,7 @@
         <v>45</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD10" s="13" t="s">
         <v>22</v>
@@ -3137,7 +3137,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3163,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>10</v>
@@ -3175,10 +3175,10 @@
         <v>8009098909</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>23</v>
@@ -3196,16 +3196,16 @@
         <v>20006</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="X11" s="13">
         <v>2224568749</v>
@@ -3214,7 +3214,7 @@
         <v>43</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>44</v>
@@ -3223,7 +3223,7 @@
         <v>45</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>22</v>
@@ -3247,7 +3247,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK11" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3273,13 +3273,13 @@
         <v>6</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>10</v>
@@ -3288,10 +3288,10 @@
         <v>8009098909</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>23</v>
@@ -3309,16 +3309,16 @@
         <v>20006</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="X12" s="13">
         <v>2224568749</v>
@@ -3327,16 +3327,16 @@
         <v>43</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>22</v>
@@ -3360,7 +3360,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>10</v>
@@ -3396,10 +3396,10 @@
         <v>8009098909</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>23</v>
@@ -3417,16 +3417,16 @@
         <v>20006</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="X13" s="13">
         <v>2224568749</v>
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>44</v>
@@ -3444,7 +3444,7 @@
         <v>45</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD13" s="13" t="s">
         <v>22</v>
@@ -3468,7 +3468,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK13" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3494,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="8" t="s">
@@ -3504,10 +3504,10 @@
         <v>8009098909</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>23</v>
@@ -3525,16 +3525,16 @@
         <v>20006</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="X14" s="13">
         <v>2224568749</v>
@@ -3543,7 +3543,7 @@
         <v>43</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>44</v>
@@ -3552,7 +3552,7 @@
         <v>45</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD14" s="13" t="s">
         <v>22</v>
@@ -3576,7 +3576,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK14" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3602,20 +3602,20 @@
         <v>7</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="8">
         <v>8009098909</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>23</v>
@@ -3633,16 +3633,16 @@
         <v>20006</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="X15" s="13">
         <v>2224568749</v>
@@ -3651,7 +3651,7 @@
         <v>43</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>44</v>
@@ -3660,7 +3660,7 @@
         <v>45</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD15" s="13" t="s">
         <v>22</v>
@@ -3684,7 +3684,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3710,20 +3710,20 @@
         <v>7</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>23</v>
@@ -3741,16 +3741,16 @@
         <v>20006</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W16" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="X16" s="13">
         <v>2224568749</v>
@@ -3759,7 +3759,7 @@
         <v>43</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>44</v>
@@ -3768,7 +3768,7 @@
         <v>45</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD16" s="13" t="s">
         <v>22</v>
@@ -3792,7 +3792,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK16" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3818,10 +3818,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>10</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>23</v>
@@ -3849,16 +3849,16 @@
         <v>20006</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="X17" s="13">
         <v>2224568749</v>
@@ -3867,7 +3867,7 @@
         <v>43</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>44</v>
@@ -3876,7 +3876,7 @@
         <v>45</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD17" s="13" t="s">
         <v>22</v>
@@ -3900,7 +3900,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK17" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3926,10 +3926,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>10</v>
@@ -3938,35 +3938,35 @@
         <v>8009098909</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="8">
         <v>1245</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S18" s="8">
         <v>20006</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V18" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="W18" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="X18" s="13">
         <v>2224568749</v>
@@ -3975,7 +3975,7 @@
         <v>43</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>44</v>
@@ -3984,7 +3984,7 @@
         <v>45</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD18" s="13" t="s">
         <v>22</v>
@@ -4008,7 +4008,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK18" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4034,10 +4034,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>10</v>
@@ -4046,35 +4046,35 @@
         <v>8009098909</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S19" s="8">
         <v>20006</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="X19" s="13">
         <v>2224568749</v>
@@ -4083,19 +4083,19 @@
         <v>43</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB19" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD19" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE19" s="13">
         <v>80011</v>
@@ -4116,7 +4116,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4142,10 +4142,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>10</v>
@@ -4154,35 +4154,35 @@
         <v>8009098909</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P20" s="8">
         <v>1245</v>
       </c>
       <c r="Q20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S20" s="19"/>
       <c r="T20" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="W20" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="X20" s="13">
         <v>2224568749</v>
@@ -4191,19 +4191,19 @@
         <v>43</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD20" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE20" s="13">
         <v>80011</v>
@@ -4224,7 +4224,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4250,10 +4250,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>10</v>
@@ -4262,56 +4262,56 @@
         <v>8009098909</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P21" s="8">
         <v>1245</v>
       </c>
       <c r="Q21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S21" s="8">
         <v>80011</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V21" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="X21" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y21" s="22"/>
       <c r="Z21" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD21" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE21" s="13">
         <v>80011</v>
@@ -4332,7 +4332,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK21" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4358,10 +4358,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>10</v>
@@ -4370,37 +4370,37 @@
         <v>8009098909</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P22" s="8">
         <v>1245</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S22" s="8">
         <v>80011</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V22" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="X22" s="13">
         <v>2224568749</v>
@@ -4410,16 +4410,16 @@
       </c>
       <c r="Z22" s="23"/>
       <c r="AA22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB22" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD22" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE22" s="13">
         <v>80011</v>
@@ -4440,7 +4440,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK22" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4466,10 +4466,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>10</v>
@@ -4478,37 +4478,37 @@
         <v>8009098909</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P23" s="8">
         <v>1245</v>
       </c>
       <c r="Q23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S23" s="8">
         <v>80011</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W23" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="X23" s="13">
         <v>2224568749</v>
@@ -4517,17 +4517,17 @@
         <v>43</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB23" s="20"/>
       <c r="AC23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD23" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE23" s="13">
         <v>80011</v>
@@ -4548,7 +4548,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4574,10 +4574,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>10</v>
@@ -4586,37 +4586,37 @@
         <v>8009098909</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P24" s="8">
         <v>1245</v>
       </c>
       <c r="Q24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S24" s="8">
         <v>80011</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="W24" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="X24" s="13">
         <v>2224568749</v>
@@ -4625,19 +4625,19 @@
         <v>43</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD24" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD24" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE24" s="13">
         <v>80011</v>
@@ -4656,7 +4656,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK24" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4682,10 +4682,10 @@
         <v>7</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>10</v>
@@ -4694,37 +4694,37 @@
         <v>8009098909</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P25" s="8">
         <v>1245</v>
       </c>
       <c r="Q25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S25" s="8">
         <v>80011</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="X25" s="13">
         <v>2224568749</v>
@@ -4733,19 +4733,19 @@
         <v>43</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD25" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD25" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE25" s="13">
         <v>80011</v>
@@ -4764,7 +4764,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK25" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4790,10 +4790,10 @@
         <v>7</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>10</v>
@@ -4802,37 +4802,37 @@
         <v>8009098909</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P26" s="8">
         <v>1245</v>
       </c>
       <c r="Q26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S26" s="8">
         <v>80011</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V26" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="X26" s="13">
         <v>2224568749</v>
@@ -4841,19 +4841,19 @@
         <v>43</v>
       </c>
       <c r="Z26" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD26" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE26" s="13">
         <v>80011</v>
@@ -4872,7 +4872,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK26" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4898,10 +4898,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>10</v>
@@ -4910,37 +4910,37 @@
         <v>8009098909</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P27" s="8">
         <v>1245</v>
       </c>
       <c r="Q27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S27" s="8">
         <v>80011</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V27" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="X27" s="13">
         <v>2224568749</v>
@@ -4949,19 +4949,19 @@
         <v>43</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB27" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD27" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE27" s="13">
         <v>80011</v>
@@ -4980,7 +4980,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5006,10 +5006,10 @@
         <v>7</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>10</v>
@@ -5018,37 +5018,37 @@
         <v>8009098909</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P28" s="8">
         <v>1245</v>
       </c>
       <c r="Q28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S28" s="8">
         <v>80011</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="W28" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="X28" s="13">
         <v>2224568749</v>
@@ -5057,19 +5057,19 @@
         <v>43</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB28" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD28" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD28" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE28" s="13">
         <v>80011</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5114,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>10</v>
@@ -5126,37 +5126,37 @@
         <v>8009098909</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P29" s="8">
         <v>1245</v>
       </c>
       <c r="Q29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S29" s="8">
         <v>80011</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V29" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="X29" s="13">
         <v>2224568749</v>
@@ -5165,19 +5165,19 @@
         <v>43</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD29" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD29" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE29" s="13">
         <v>80011</v>
@@ -5227,7 +5227,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
@@ -5239,16 +5239,16 @@
       </c>
       <c r="S30" s="19"/>
       <c r="T30" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V30" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="X30" s="13">
         <v>2224568749</v>
@@ -5256,14 +5256,14 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB30" s="19"/>
       <c r="AC30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD30" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD30" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE30" s="13">
         <v>80011</v>
@@ -5303,7 +5303,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
@@ -5315,16 +5315,16 @@
       </c>
       <c r="S31" s="19"/>
       <c r="T31" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V31" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="W31" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="X31" s="13">
         <v>2224568749</v>
@@ -5332,14 +5332,14 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
       <c r="AA31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="19"/>
       <c r="AC31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD31" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE31" s="13">
         <v>80011</v>
@@ -5374,10 +5374,10 @@
         <v>7</v>
       </c>
       <c r="I32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>10</v>
@@ -5386,10 +5386,10 @@
         <v>8009098909</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>23</v>
@@ -5407,16 +5407,16 @@
         <v>20006</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V32" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="X32" s="13">
         <v>2224568749</v>
@@ -5425,7 +5425,7 @@
         <v>43</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>44</v>
@@ -5434,7 +5434,7 @@
         <v>45</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD32" s="13" t="s">
         <v>22</v>
@@ -5458,7 +5458,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK32" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5484,10 +5484,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>10</v>
@@ -5496,10 +5496,10 @@
         <v>8009098909</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>23</v>
@@ -5517,16 +5517,16 @@
         <v>20006</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V33" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="X33" s="13">
         <v>2224568749</v>
@@ -5535,7 +5535,7 @@
         <v>43</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>44</v>
@@ -5544,7 +5544,7 @@
         <v>45</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD33" s="13" t="s">
         <v>22</v>
@@ -5568,7 +5568,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK33" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5594,10 +5594,10 @@
         <v>7</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>10</v>
@@ -5606,10 +5606,10 @@
         <v>8009098909</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>23</v>
@@ -5627,16 +5627,16 @@
         <v>20006</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V34" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="X34" s="13">
         <v>2224568749</v>
@@ -5645,7 +5645,7 @@
         <v>43</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>44</v>
@@ -5654,7 +5654,7 @@
         <v>45</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD34" s="13" t="s">
         <v>22</v>
@@ -5678,7 +5678,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK34" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5704,10 +5704,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>10</v>
@@ -5716,10 +5716,10 @@
         <v>8009098909</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>23</v>
@@ -5737,16 +5737,16 @@
         <v>20006</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V35" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W35" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="W35" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="X35" s="13">
         <v>2224568749</v>
@@ -5755,7 +5755,7 @@
         <v>43</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>44</v>
@@ -5764,7 +5764,7 @@
         <v>45</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD35" s="13" t="s">
         <v>22</v>
@@ -5788,7 +5788,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK35" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5814,10 +5814,10 @@
         <v>7</v>
       </c>
       <c r="I36" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>10</v>
@@ -5826,10 +5826,10 @@
         <v>8009098909</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>23</v>
@@ -5847,16 +5847,16 @@
         <v>20006</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V36" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="W36" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="X36" s="13">
         <v>2224568749</v>
@@ -5865,7 +5865,7 @@
         <v>43</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>44</v>
@@ -5874,7 +5874,7 @@
         <v>45</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD36" s="13" t="s">
         <v>22</v>
@@ -5898,7 +5898,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK36" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5924,10 +5924,10 @@
         <v>7</v>
       </c>
       <c r="I37" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>10</v>
@@ -5936,10 +5936,10 @@
         <v>8009098909</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>23</v>
@@ -5957,16 +5957,16 @@
         <v>20006</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V37" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="X37" s="13">
         <v>2224568749</v>
@@ -5975,7 +5975,7 @@
         <v>43</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>44</v>
@@ -5984,7 +5984,7 @@
         <v>45</v>
       </c>
       <c r="AC37" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD37" s="13" t="s">
         <v>22</v>
@@ -6008,7 +6008,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK37" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -6034,13 +6034,13 @@
         <v>6</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I38" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>10</v>
@@ -6049,10 +6049,10 @@
         <v>8009098909</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>23</v>
@@ -6070,16 +6070,16 @@
         <v>20006</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="W38" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="X38" s="13">
         <v>2224568749</v>
@@ -6088,7 +6088,7 @@
         <v>43</v>
       </c>
       <c r="Z38" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>44</v>
@@ -6097,7 +6097,7 @@
         <v>45</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD38" s="13" t="s">
         <v>22</v>
@@ -6121,7 +6121,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK38" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -6152,7 +6152,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
@@ -6164,16 +6164,16 @@
       </c>
       <c r="S39" s="19"/>
       <c r="T39" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V39" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="W39" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="X39" s="13">
         <v>2224568749</v>
@@ -6181,14 +6181,14 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD39" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD39" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE39" s="13">
         <v>80011</v>
@@ -6228,7 +6228,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -6240,16 +6240,16 @@
       </c>
       <c r="S40" s="19"/>
       <c r="T40" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V40" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="W40" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="X40" s="13">
         <v>2224568749</v>
@@ -6257,14 +6257,14 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
       <c r="AA40" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB40" s="19"/>
       <c r="AC40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD40" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE40" s="13">
         <v>80011</v>
@@ -6304,7 +6304,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
@@ -6316,16 +6316,16 @@
       </c>
       <c r="S41" s="19"/>
       <c r="T41" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="X41" s="13">
         <v>2224568749</v>
@@ -6333,14 +6333,14 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
       <c r="AA41" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB41" s="19"/>
       <c r="AC41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD41" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD41" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE41" s="13">
         <v>80011</v>
@@ -6380,7 +6380,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -6392,16 +6392,16 @@
       </c>
       <c r="S42" s="19"/>
       <c r="T42" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="W42" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="X42" s="13">
         <v>2224568749</v>
@@ -6409,14 +6409,14 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB42" s="19"/>
       <c r="AC42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD42" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE42" s="13">
         <v>80011</v>
@@ -6456,7 +6456,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -6468,16 +6468,16 @@
       </c>
       <c r="S43" s="19"/>
       <c r="T43" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="X43" s="13">
         <v>2224568749</v>
@@ -6485,14 +6485,14 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB43" s="19"/>
       <c r="AC43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD43" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD43" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE43" s="13">
         <v>80011</v>
@@ -6527,7 +6527,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -6535,7 +6535,7 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -6547,16 +6547,16 @@
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="W44" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="X44" s="13">
         <v>2224568749</v>
@@ -6564,14 +6564,14 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB44" s="19"/>
       <c r="AC44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD44" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD44" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE44" s="13">
         <v>80011</v>
@@ -6611,7 +6611,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
@@ -6623,16 +6623,16 @@
       </c>
       <c r="S45" s="19"/>
       <c r="T45" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="W45" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="X45" s="13">
         <v>2224568749</v>
@@ -6640,14 +6640,14 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB45" s="19"/>
       <c r="AC45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD45" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD45" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE45" s="13">
         <v>80011</v>
@@ -6687,7 +6687,7 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -6699,16 +6699,16 @@
       </c>
       <c r="S46" s="19"/>
       <c r="T46" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="X46" s="13">
         <v>2224568749</v>
@@ -6716,14 +6716,14 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
       <c r="AA46" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB46" s="19"/>
       <c r="AC46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD46" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE46" s="13">
         <v>80011</v>
@@ -6763,7 +6763,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
@@ -6775,16 +6775,16 @@
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="X47" s="13">
         <v>2224568749</v>
@@ -6792,14 +6792,14 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
       <c r="AA47" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD47" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD47" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE47" s="13">
         <v>80011</v>
@@ -6839,7 +6839,7 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
@@ -6851,16 +6851,16 @@
       </c>
       <c r="S48" s="19"/>
       <c r="T48" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="X48" s="13">
         <v>2224568749</v>
@@ -6868,14 +6868,14 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
       <c r="AA48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB48" s="19"/>
       <c r="AC48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD48" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD48" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE48" s="13">
         <v>80011</v>
@@ -6915,7 +6915,7 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
@@ -6927,16 +6927,16 @@
       </c>
       <c r="S49" s="19"/>
       <c r="T49" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="X49" s="13">
         <v>2224568749</v>
@@ -6944,14 +6944,14 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
       <c r="AA49" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB49" s="19"/>
       <c r="AC49" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD49" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD49" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE49" s="13">
         <v>80011</v>
@@ -6991,7 +6991,7 @@
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -7003,16 +7003,16 @@
       </c>
       <c r="S50" s="19"/>
       <c r="T50" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="W50" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="X50" s="13">
         <v>2224568749</v>
@@ -7020,14 +7020,14 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
       <c r="AA50" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB50" s="19"/>
       <c r="AC50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD50" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD50" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE50" s="13">
         <v>80011</v>
@@ -7062,7 +7062,7 @@
         <v>6</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -7070,7 +7070,7 @@
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
@@ -7082,16 +7082,16 @@
       </c>
       <c r="S51" s="19"/>
       <c r="T51" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="W51" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="X51" s="13">
         <v>2224568749</v>
@@ -7099,14 +7099,14 @@
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
       <c r="AA51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB51" s="19"/>
       <c r="AC51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD51" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD51" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE51" s="13">
         <v>80011</v>
@@ -7141,10 +7141,10 @@
         <v>7</v>
       </c>
       <c r="I52" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>10</v>
@@ -7153,10 +7153,10 @@
         <v>8009098909</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>23</v>
@@ -7174,16 +7174,16 @@
         <v>20006</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="W52" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="X52" s="13">
         <v>2224568749</v>
@@ -7192,7 +7192,7 @@
         <v>43</v>
       </c>
       <c r="Z52" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA52" s="5" t="s">
         <v>44</v>
@@ -7201,7 +7201,7 @@
         <v>45</v>
       </c>
       <c r="AC52" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD52" s="13" t="s">
         <v>22</v>
@@ -7216,13 +7216,13 @@
         <v>46</v>
       </c>
       <c r="AH52" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ52" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK52" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7248,10 +7248,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>10</v>
@@ -7260,10 +7260,10 @@
         <v>8009098909</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>23</v>
@@ -7281,16 +7281,16 @@
         <v>20006</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V53" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="W53" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="X53" s="13">
         <v>2224568749</v>
@@ -7299,7 +7299,7 @@
         <v>43</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA53" s="5" t="s">
         <v>44</v>
@@ -7308,7 +7308,7 @@
         <v>45</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD53" s="13" t="s">
         <v>22</v>
@@ -7323,13 +7323,13 @@
         <v>46</v>
       </c>
       <c r="AH53" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ53" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK53" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7355,10 +7355,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>10</v>
@@ -7367,10 +7367,10 @@
         <v>8009098909</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>23</v>
@@ -7388,16 +7388,16 @@
         <v>20006</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V54" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="W54" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="X54" s="13">
         <v>2224568749</v>
@@ -7406,7 +7406,7 @@
         <v>43</v>
       </c>
       <c r="Z54" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA54" s="5" t="s">
         <v>44</v>
@@ -7415,7 +7415,7 @@
         <v>45</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD54" s="13" t="s">
         <v>22</v>
@@ -7430,13 +7430,13 @@
         <v>46</v>
       </c>
       <c r="AH54" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ54" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK54" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7462,10 +7462,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>10</v>
@@ -7474,10 +7474,10 @@
         <v>8009098909</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>23</v>
@@ -7495,16 +7495,16 @@
         <v>20006</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V55" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="W55" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="W55" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="X55" s="13">
         <v>2224568749</v>
@@ -7513,7 +7513,7 @@
         <v>43</v>
       </c>
       <c r="Z55" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA55" s="5" t="s">
         <v>44</v>
@@ -7522,7 +7522,7 @@
         <v>45</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD55" s="13" t="s">
         <v>22</v>
@@ -7537,13 +7537,13 @@
         <v>46</v>
       </c>
       <c r="AH55" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ55" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK55" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7569,10 +7569,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>10</v>
@@ -7581,10 +7581,10 @@
         <v>8009098909</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>23</v>
@@ -7602,16 +7602,16 @@
         <v>20006</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V56" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="W56" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="W56" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="X56" s="13">
         <v>2224568749</v>
@@ -7620,7 +7620,7 @@
         <v>43</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA56" s="5" t="s">
         <v>44</v>
@@ -7629,7 +7629,7 @@
         <v>45</v>
       </c>
       <c r="AC56" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD56" s="13" t="s">
         <v>22</v>
@@ -7644,13 +7644,13 @@
         <v>46</v>
       </c>
       <c r="AH56" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ56" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK56" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7676,10 +7676,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>10</v>
@@ -7688,10 +7688,10 @@
         <v>8009098909</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>23</v>
@@ -7709,16 +7709,16 @@
         <v>20006</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V57" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="W57" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="X57" s="13">
         <v>2224568749</v>
@@ -7727,7 +7727,7 @@
         <v>43</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA57" s="5" t="s">
         <v>44</v>
@@ -7736,7 +7736,7 @@
         <v>45</v>
       </c>
       <c r="AC57" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD57" s="13" t="s">
         <v>22</v>
@@ -7751,13 +7751,13 @@
         <v>46</v>
       </c>
       <c r="AH57" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ57" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK57" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7783,13 +7783,13 @@
         <v>6</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>10</v>
@@ -7798,10 +7798,10 @@
         <v>8009098909</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>23</v>
@@ -7819,16 +7819,16 @@
         <v>20006</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V58" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="W58" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="W58" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="X58" s="13">
         <v>2224568749</v>
@@ -7837,16 +7837,16 @@
         <v>43</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA58" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD58" s="13" t="s">
         <v>22</v>
@@ -7861,13 +7861,13 @@
         <v>46</v>
       </c>
       <c r="AH58" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ58" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK58" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>10</v>
@@ -7903,10 +7903,10 @@
         <v>8009098909</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>23</v>
@@ -7924,16 +7924,16 @@
         <v>20006</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V59" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="W59" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>269</v>
       </c>
       <c r="X59" s="13">
         <v>2224568749</v>
@@ -7942,7 +7942,7 @@
         <v>43</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA59" s="5" t="s">
         <v>44</v>
@@ -7951,7 +7951,7 @@
         <v>45</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD59" s="13" t="s">
         <v>22</v>
@@ -7966,13 +7966,13 @@
         <v>46</v>
       </c>
       <c r="AH59" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ59" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK59" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7998,7 +7998,7 @@
         <v>7</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="8" t="s">
@@ -8008,10 +8008,10 @@
         <v>8009098909</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>23</v>
@@ -8029,16 +8029,16 @@
         <v>20006</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V60" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="W60" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="W60" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="X60" s="13">
         <v>2224568749</v>
@@ -8047,7 +8047,7 @@
         <v>43</v>
       </c>
       <c r="Z60" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA60" s="5" t="s">
         <v>44</v>
@@ -8056,7 +8056,7 @@
         <v>45</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD60" s="13" t="s">
         <v>22</v>
@@ -8071,13 +8071,13 @@
         <v>46</v>
       </c>
       <c r="AH60" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ60" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK60" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8103,20 +8103,20 @@
         <v>7</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="8">
         <v>8009098909</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>23</v>
@@ -8134,16 +8134,16 @@
         <v>20006</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V61" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="W61" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="X61" s="13">
         <v>2224568749</v>
@@ -8152,7 +8152,7 @@
         <v>43</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA61" s="5" t="s">
         <v>44</v>
@@ -8161,7 +8161,7 @@
         <v>45</v>
       </c>
       <c r="AC61" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD61" s="13" t="s">
         <v>22</v>
@@ -8176,13 +8176,13 @@
         <v>46</v>
       </c>
       <c r="AH61" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ61" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK61" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8208,20 +8208,20 @@
         <v>7</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L62" s="19"/>
       <c r="M62" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>23</v>
@@ -8239,16 +8239,16 @@
         <v>20006</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V62" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="X62" s="13">
         <v>2224568749</v>
@@ -8257,7 +8257,7 @@
         <v>43</v>
       </c>
       <c r="Z62" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA62" s="5" t="s">
         <v>44</v>
@@ -8266,7 +8266,7 @@
         <v>45</v>
       </c>
       <c r="AC62" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD62" s="13" t="s">
         <v>22</v>
@@ -8281,13 +8281,13 @@
         <v>46</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ62" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK62" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8313,10 +8313,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>10</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="M63" s="21"/>
       <c r="N63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>23</v>
@@ -8344,16 +8344,16 @@
         <v>20006</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V63" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="X63" s="13">
         <v>2224568749</v>
@@ -8362,7 +8362,7 @@
         <v>43</v>
       </c>
       <c r="Z63" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA63" s="5" t="s">
         <v>44</v>
@@ -8371,7 +8371,7 @@
         <v>45</v>
       </c>
       <c r="AC63" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD63" s="13" t="s">
         <v>22</v>
@@ -8386,13 +8386,13 @@
         <v>46</v>
       </c>
       <c r="AH63" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ63" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK63" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8418,10 +8418,10 @@
         <v>7</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>10</v>
@@ -8430,35 +8430,35 @@
         <v>8009098909</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O64" s="19"/>
       <c r="P64" s="8">
         <v>1245</v>
       </c>
       <c r="Q64" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R64" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S64" s="8">
         <v>20006</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V64" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="X64" s="13">
         <v>2224568749</v>
@@ -8467,7 +8467,7 @@
         <v>43</v>
       </c>
       <c r="Z64" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA64" s="5" t="s">
         <v>44</v>
@@ -8476,7 +8476,7 @@
         <v>45</v>
       </c>
       <c r="AC64" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD64" s="13" t="s">
         <v>22</v>
@@ -8491,13 +8491,13 @@
         <v>46</v>
       </c>
       <c r="AH64" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ64" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK64" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8523,10 +8523,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>10</v>
@@ -8535,35 +8535,35 @@
         <v>8009098909</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P65" s="19"/>
       <c r="Q65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S65" s="8">
         <v>20006</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V65" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>291</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>292</v>
       </c>
       <c r="X65" s="13">
         <v>2224568749</v>
@@ -8572,19 +8572,19 @@
         <v>43</v>
       </c>
       <c r="Z65" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA65" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB65" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC65" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD65" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD65" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE65" s="13">
         <v>80011</v>
@@ -8596,13 +8596,13 @@
         <v>46</v>
       </c>
       <c r="AH65" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ65" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK65" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8628,10 +8628,10 @@
         <v>7</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>10</v>
@@ -8640,35 +8640,35 @@
         <v>8009098909</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P66" s="8">
         <v>1245</v>
       </c>
       <c r="Q66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S66" s="19"/>
       <c r="T66" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V66" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="X66" s="13">
         <v>2224568749</v>
@@ -8677,19 +8677,19 @@
         <v>43</v>
       </c>
       <c r="Z66" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA66" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB66" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC66" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD66" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD66" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE66" s="13">
         <v>80011</v>
@@ -8701,13 +8701,13 @@
         <v>46</v>
       </c>
       <c r="AH66" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ66" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK66" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8733,10 +8733,10 @@
         <v>7</v>
       </c>
       <c r="I67" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>10</v>
@@ -8745,56 +8745,56 @@
         <v>8009098909</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P67" s="8">
         <v>1245</v>
       </c>
       <c r="Q67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R67" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S67" s="8">
         <v>80011</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V67" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="X67" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y67" s="22"/>
       <c r="Z67" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB67" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC67" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD67" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD67" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE67" s="13">
         <v>80011</v>
@@ -8806,13 +8806,13 @@
         <v>46</v>
       </c>
       <c r="AH67" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ67" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK67" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8838,10 +8838,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>10</v>
@@ -8850,37 +8850,37 @@
         <v>8009098909</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P68" s="8">
         <v>1245</v>
       </c>
       <c r="Q68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S68" s="8">
         <v>80011</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V68" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="W68" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="X68" s="13">
         <v>2224568749</v>
@@ -8890,16 +8890,16 @@
       </c>
       <c r="Z68" s="23"/>
       <c r="AA68" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB68" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC68" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD68" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD68" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE68" s="13">
         <v>80011</v>
@@ -8911,13 +8911,13 @@
         <v>46</v>
       </c>
       <c r="AH68" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ68" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK68" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8943,10 +8943,10 @@
         <v>7</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>10</v>
@@ -8955,37 +8955,37 @@
         <v>8009098909</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P69" s="8">
         <v>1245</v>
       </c>
       <c r="Q69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R69" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S69" s="8">
         <v>80011</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V69" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="W69" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="W69" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="X69" s="13">
         <v>2224568749</v>
@@ -8994,17 +8994,17 @@
         <v>43</v>
       </c>
       <c r="Z69" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB69" s="20"/>
       <c r="AC69" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD69" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD69" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE69" s="13">
         <v>80011</v>
@@ -9016,13 +9016,13 @@
         <v>46</v>
       </c>
       <c r="AH69" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ69" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK69" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9048,10 +9048,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>10</v>
@@ -9060,37 +9060,37 @@
         <v>8009098909</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P70" s="8">
         <v>1245</v>
       </c>
       <c r="Q70" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R70" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S70" s="8">
         <v>80011</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V70" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="W70" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="W70" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="X70" s="13">
         <v>2224568749</v>
@@ -9099,19 +9099,19 @@
         <v>43</v>
       </c>
       <c r="Z70" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB70" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC70" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD70" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD70" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE70" s="13">
         <v>80011</v>
@@ -9121,13 +9121,13 @@
         <v>46</v>
       </c>
       <c r="AH70" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ70" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK70" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -9153,10 +9153,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>10</v>
@@ -9165,37 +9165,37 @@
         <v>8009098909</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P71" s="8">
         <v>1245</v>
       </c>
       <c r="Q71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R71" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S71" s="8">
         <v>80011</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V71" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="W71" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="X71" s="13">
         <v>2224568749</v>
@@ -9204,19 +9204,19 @@
         <v>43</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA71" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB71" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC71" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD71" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE71" s="13">
         <v>80011</v>
@@ -9226,13 +9226,13 @@
       </c>
       <c r="AG71" s="20"/>
       <c r="AH71" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ71" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK71" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9258,10 +9258,10 @@
         <v>7</v>
       </c>
       <c r="I72" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>10</v>
@@ -9270,37 +9270,37 @@
         <v>8009098909</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P72" s="8">
         <v>1245</v>
       </c>
       <c r="Q72" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R72" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S72" s="8">
         <v>80011</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V72" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="W72" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>320</v>
       </c>
       <c r="X72" s="13">
         <v>2224568749</v>
@@ -9309,19 +9309,19 @@
         <v>43</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA72" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB72" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD72" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD72" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE72" s="13">
         <v>80011</v>
@@ -9337,7 +9337,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK72" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9363,10 +9363,10 @@
         <v>7</v>
       </c>
       <c r="I73" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>10</v>
@@ -9375,37 +9375,37 @@
         <v>8009098909</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P73" s="8">
         <v>1245</v>
       </c>
       <c r="Q73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R73" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S73" s="8">
         <v>80011</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V73" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="W73" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="X73" s="13">
         <v>2224568749</v>
@@ -9414,19 +9414,19 @@
         <v>43</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA73" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB73" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC73" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD73" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD73" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE73" s="13">
         <v>80011</v>
@@ -9438,14 +9438,14 @@
         <v>46</v>
       </c>
       <c r="AH73" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AI73" s="20"/>
       <c r="AJ73" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK73" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9471,10 +9471,10 @@
         <v>7</v>
       </c>
       <c r="I74" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>10</v>
@@ -9483,37 +9483,37 @@
         <v>8009098909</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P74" s="8">
         <v>1245</v>
       </c>
       <c r="Q74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R74" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R74" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S74" s="8">
         <v>80011</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V74" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="W74" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="W74" s="13" t="s">
-        <v>328</v>
       </c>
       <c r="X74" s="13">
         <v>2224568749</v>
@@ -9522,19 +9522,19 @@
         <v>43</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA74" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB74" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD74" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD74" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE74" s="13">
         <v>80011</v>
@@ -9546,11 +9546,11 @@
         <v>46</v>
       </c>
       <c r="AH74" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ74" s="19"/>
       <c r="AK74" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9576,10 +9576,10 @@
         <v>7</v>
       </c>
       <c r="I75" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>10</v>
@@ -9588,37 +9588,37 @@
         <v>8009098909</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P75" s="8">
         <v>1245</v>
       </c>
       <c r="Q75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R75" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="R75" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="S75" s="8">
         <v>80011</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V75" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="W75" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="W75" s="13" t="s">
-        <v>332</v>
       </c>
       <c r="X75" s="13">
         <v>2224568749</v>
@@ -9627,19 +9627,19 @@
         <v>43</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA75" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB75" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC75" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD75" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD75" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE75" s="13">
         <v>80011</v>
@@ -9651,7 +9651,7 @@
         <v>46</v>
       </c>
       <c r="AH75" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ75" s="8">
         <v>8009098908</v>
@@ -9686,7 +9686,7 @@
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O76" s="19"/>
       <c r="P76" s="19"/>
@@ -9698,16 +9698,16 @@
       </c>
       <c r="S76" s="19"/>
       <c r="T76" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V76" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="W76" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="X76" s="13">
         <v>2224568749</v>
@@ -9715,14 +9715,14 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
       <c r="AA76" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB76" s="19"/>
       <c r="AC76" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD76" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD76" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE76" s="13">
         <v>80011</v>
@@ -9762,7 +9762,7 @@
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
       <c r="N77" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O77" s="19"/>
       <c r="P77" s="19"/>
@@ -9774,16 +9774,16 @@
       </c>
       <c r="S77" s="19"/>
       <c r="T77" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V77" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="W77" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="W77" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="X77" s="13">
         <v>2224568749</v>
@@ -9791,14 +9791,14 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
       <c r="AA77" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB77" s="19"/>
       <c r="AC77" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD77" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD77" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE77" s="13">
         <v>80011</v>
@@ -9833,10 +9833,10 @@
         <v>7</v>
       </c>
       <c r="I78" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J78" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>10</v>
@@ -9845,10 +9845,10 @@
         <v>8009098909</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>23</v>
@@ -9866,16 +9866,16 @@
         <v>20006</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V78" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="W78" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="W78" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="X78" s="13">
         <v>2224568749</v>
@@ -9884,7 +9884,7 @@
         <v>43</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA78" s="5" t="s">
         <v>44</v>
@@ -9893,7 +9893,7 @@
         <v>45</v>
       </c>
       <c r="AC78" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD78" s="13" t="s">
         <v>22</v>
@@ -9908,13 +9908,13 @@
         <v>46</v>
       </c>
       <c r="AH78" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ78" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK78" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9940,10 +9940,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>10</v>
@@ -9952,10 +9952,10 @@
         <v>8009098909</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>23</v>
@@ -9973,16 +9973,16 @@
         <v>20006</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V79" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="W79" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="W79" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="X79" s="13">
         <v>2224568749</v>
@@ -9991,7 +9991,7 @@
         <v>43</v>
       </c>
       <c r="Z79" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA79" s="5" t="s">
         <v>44</v>
@@ -10000,7 +10000,7 @@
         <v>45</v>
       </c>
       <c r="AC79" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD79" s="13" t="s">
         <v>22</v>
@@ -10015,13 +10015,13 @@
         <v>46</v>
       </c>
       <c r="AH79" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ79" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK79" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10047,10 +10047,10 @@
         <v>7</v>
       </c>
       <c r="I80" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>10</v>
@@ -10059,10 +10059,10 @@
         <v>8009098909</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>23</v>
@@ -10080,16 +10080,16 @@
         <v>20006</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V80" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="W80" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="X80" s="13">
         <v>2224568749</v>
@@ -10098,7 +10098,7 @@
         <v>43</v>
       </c>
       <c r="Z80" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA80" s="5" t="s">
         <v>44</v>
@@ -10107,7 +10107,7 @@
         <v>45</v>
       </c>
       <c r="AC80" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD80" s="13" t="s">
         <v>22</v>
@@ -10122,13 +10122,13 @@
         <v>46</v>
       </c>
       <c r="AH80" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ80" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK80" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10154,10 +10154,10 @@
         <v>7</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>10</v>
@@ -10166,10 +10166,10 @@
         <v>8009098909</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>23</v>
@@ -10187,16 +10187,16 @@
         <v>20006</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V81" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="W81" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="W81" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="X81" s="13">
         <v>2224568749</v>
@@ -10205,7 +10205,7 @@
         <v>43</v>
       </c>
       <c r="Z81" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA81" s="5" t="s">
         <v>44</v>
@@ -10214,7 +10214,7 @@
         <v>45</v>
       </c>
       <c r="AC81" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD81" s="13" t="s">
         <v>22</v>
@@ -10229,13 +10229,13 @@
         <v>46</v>
       </c>
       <c r="AH81" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ81" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK81" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10261,10 +10261,10 @@
         <v>7</v>
       </c>
       <c r="I82" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>10</v>
@@ -10273,10 +10273,10 @@
         <v>8009098909</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>23</v>
@@ -10294,16 +10294,16 @@
         <v>20006</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V82" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="W82" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="W82" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="X82" s="13">
         <v>2224568749</v>
@@ -10312,7 +10312,7 @@
         <v>43</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA82" s="5" t="s">
         <v>44</v>
@@ -10321,7 +10321,7 @@
         <v>45</v>
       </c>
       <c r="AC82" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD82" s="13" t="s">
         <v>22</v>
@@ -10336,13 +10336,13 @@
         <v>46</v>
       </c>
       <c r="AH82" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ82" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK82" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10368,10 +10368,10 @@
         <v>7</v>
       </c>
       <c r="I83" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>10</v>
@@ -10380,10 +10380,10 @@
         <v>8009098909</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O83" s="8" t="s">
         <v>23</v>
@@ -10401,16 +10401,16 @@
         <v>20006</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V83" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="W83" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="W83" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="X83" s="13">
         <v>2224568749</v>
@@ -10419,7 +10419,7 @@
         <v>43</v>
       </c>
       <c r="Z83" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA83" s="5" t="s">
         <v>44</v>
@@ -10428,7 +10428,7 @@
         <v>45</v>
       </c>
       <c r="AC83" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD83" s="13" t="s">
         <v>22</v>
@@ -10443,13 +10443,13 @@
         <v>46</v>
       </c>
       <c r="AH83" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ83" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK83" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10475,13 +10475,13 @@
         <v>6</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I84" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>10</v>
@@ -10490,10 +10490,10 @@
         <v>8009098909</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O84" s="8" t="s">
         <v>23</v>
@@ -10511,16 +10511,16 @@
         <v>20006</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V84" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="W84" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="W84" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="X84" s="13">
         <v>2224568749</v>
@@ -10529,7 +10529,7 @@
         <v>43</v>
       </c>
       <c r="Z84" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA84" s="5" t="s">
         <v>44</v>
@@ -10538,7 +10538,7 @@
         <v>45</v>
       </c>
       <c r="AC84" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD84" s="13" t="s">
         <v>22</v>
@@ -10553,13 +10553,13 @@
         <v>46</v>
       </c>
       <c r="AH84" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ84" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK84" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10590,7 +10590,7 @@
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O85" s="19"/>
       <c r="P85" s="19"/>
@@ -10602,16 +10602,16 @@
       </c>
       <c r="S85" s="19"/>
       <c r="T85" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V85" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="W85" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="W85" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="X85" s="13">
         <v>2224568749</v>
@@ -10619,14 +10619,14 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB85" s="19"/>
       <c r="AC85" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD85" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD85" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE85" s="13">
         <v>80011</v>
@@ -10666,7 +10666,7 @@
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O86" s="19"/>
       <c r="P86" s="19"/>
@@ -10678,16 +10678,16 @@
       </c>
       <c r="S86" s="19"/>
       <c r="T86" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V86" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="W86" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="X86" s="13">
         <v>2224568749</v>
@@ -10695,14 +10695,14 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB86" s="19"/>
       <c r="AC86" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD86" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD86" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE86" s="13">
         <v>80011</v>
@@ -10742,7 +10742,7 @@
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O87" s="19"/>
       <c r="P87" s="19"/>
@@ -10754,16 +10754,16 @@
       </c>
       <c r="S87" s="19"/>
       <c r="T87" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V87" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="W87" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="W87" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="X87" s="13">
         <v>2224568749</v>
@@ -10771,14 +10771,14 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB87" s="19"/>
       <c r="AC87" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD87" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD87" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE87" s="13">
         <v>80011</v>
@@ -10818,7 +10818,7 @@
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O88" s="19"/>
       <c r="P88" s="19"/>
@@ -10830,16 +10830,16 @@
       </c>
       <c r="S88" s="19"/>
       <c r="T88" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V88" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="W88" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="W88" s="13" t="s">
-        <v>372</v>
       </c>
       <c r="X88" s="13">
         <v>2224568749</v>
@@ -10847,14 +10847,14 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB88" s="19"/>
       <c r="AC88" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD88" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD88" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE88" s="13">
         <v>80011</v>
@@ -10894,7 +10894,7 @@
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O89" s="19"/>
       <c r="P89" s="19"/>
@@ -10906,16 +10906,16 @@
       </c>
       <c r="S89" s="19"/>
       <c r="T89" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V89" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="W89" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="W89" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="X89" s="13">
         <v>2224568749</v>
@@ -10923,14 +10923,14 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB89" s="19"/>
       <c r="AC89" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD89" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD89" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE89" s="13">
         <v>80011</v>
@@ -10965,7 +10965,7 @@
         <v>6</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
@@ -10973,7 +10973,7 @@
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O90" s="19"/>
       <c r="P90" s="19"/>
@@ -10985,16 +10985,16 @@
       </c>
       <c r="S90" s="19"/>
       <c r="T90" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V90" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="W90" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="W90" s="13" t="s">
-        <v>376</v>
       </c>
       <c r="X90" s="13">
         <v>2224568749</v>
@@ -11002,14 +11002,14 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB90" s="19"/>
       <c r="AC90" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD90" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD90" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE90" s="13">
         <v>80011</v>
@@ -11049,7 +11049,7 @@
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O91" s="19"/>
       <c r="P91" s="19"/>
@@ -11061,16 +11061,16 @@
       </c>
       <c r="S91" s="19"/>
       <c r="T91" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V91" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="W91" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="W91" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="X91" s="13">
         <v>2224568749</v>
@@ -11078,14 +11078,14 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
       <c r="AA91" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB91" s="19"/>
       <c r="AC91" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD91" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD91" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE91" s="13">
         <v>80011</v>
@@ -11125,7 +11125,7 @@
       <c r="L92" s="19"/>
       <c r="M92" s="19"/>
       <c r="N92" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O92" s="19"/>
       <c r="P92" s="19"/>
@@ -11137,16 +11137,16 @@
       </c>
       <c r="S92" s="19"/>
       <c r="T92" s="11" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V92" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="W92" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="W92" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="X92" s="13">
         <v>2224568749</v>
@@ -11154,14 +11154,14 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB92" s="19"/>
       <c r="AC92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD92" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AD92" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="AE92" s="13">
         <v>80011</v>

--- a/src/test/resources/FHEO-Testdata3.xlsx
+++ b/src/test/resources/FHEO-Testdata3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E135F88-A535-4C73-80CE-C3DB53104995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F29718-E5E6-46A4-88E3-02F119A08950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="382">
   <si>
     <t>race</t>
   </si>
@@ -1174,6 +1174,9 @@
   </si>
   <si>
     <t>05-12-2021</t>
+  </si>
+  <si>
+    <t>discDateWithTimestamp</t>
   </si>
 </sst>
 </file>
@@ -2119,13 +2122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2:T92"/>
+      <selection pane="bottomRight" activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2170,7 +2173,7 @@
     <col min="38" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2282,8 +2285,11 @@
       <c r="AK1" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2365,7 @@
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -2435,7 +2441,7 @@
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -2511,7 +2517,7 @@
       <c r="AJ4" s="20"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2596,7 @@
       <c r="AJ5" s="20"/>
       <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3579,7 +3585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
